--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/20/seed1/result_data_RandomForest.xlsx
@@ -502,13 +502,13 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.10399999999999</v>
+        <v>-13.78619999999998</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.74339999999999</v>
+        <v>13.9104</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.10659999999999</v>
+        <v>12.87919999999999</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.641</v>
+        <v>-11.66780000000001</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.4285</v>
+        <v>12.39280000000001</v>
       </c>
     </row>
     <row r="7">
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.089</v>
+        <v>-12.0666</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -570,13 +570,13 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.7034</v>
+        <v>-11.9721</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>14.20629999999999</v>
+        <v>13.85389999999999</v>
       </c>
     </row>
     <row r="9">
@@ -706,13 +706,13 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.7435</v>
+        <v>-11.79860000000001</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>12.6912</v>
+        <v>12.6506</v>
       </c>
     </row>
     <row r="17">
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.7007</v>
+        <v>-14.3589</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.9195</v>
+        <v>-13.09030000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>12.0145</v>
+        <v>12.13049999999999</v>
       </c>
     </row>
     <row r="23">
